--- a/data/finance.xlsx
+++ b/data/finance.xlsx
@@ -1,76 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E0192A-1F2C-4225-9A94-8F194AB1C181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="3" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,45 +56,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,478 +443,520 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE687C3C-53F7-4F96-97CF-AADF98D3558F}">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27" style="6" customWidth="1"/>
+    <col width="11.42578125" customWidth="1" min="1" max="1"/>
+    <col width="16.7109375" customWidth="1" style="3" min="2" max="2"/>
+    <col width="27" customWidth="1" style="6" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" s="8" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>174.4</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B6-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>45565</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B3" s="5" t="n">
         <v>174.4</v>
       </c>
-      <c r="C2" s="7">
-        <f>(B2/B6-1)*100</f>
-        <v>-2.7328499721137822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C3" s="7">
+        <f>(B3/B7-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>45473</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="5" t="n">
         <v>175.4</v>
       </c>
-      <c r="C3" s="7">
-        <f t="shared" ref="C3:C33" si="0">(B3/B7-1)*100</f>
-        <v>-2.6420959147424483</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C4" s="7">
+        <f>(B4/B8-1)*100</f>
+        <v/>
+      </c>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>45382</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="5" t="n">
         <v>175.1</v>
       </c>
-      <c r="C4" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.8409721451559178</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="C5" s="7">
+        <f>(B5/B9-1)*100</f>
+        <v/>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>45291</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="5" t="n">
         <v>178.22</v>
       </c>
-      <c r="C5" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.0123158126237106</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C6" s="7">
+        <f>(B6/B10-1)*100</f>
+        <v/>
+      </c>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>45199</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="5" t="n">
         <v>179.3</v>
       </c>
-      <c r="C6" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.828961630175586</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C7" s="7">
+        <f>(B7/B11-1)*100</f>
+        <v/>
+      </c>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>45107</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="5" t="n">
         <v>180.16</v>
       </c>
-      <c r="C7" s="7">
-        <f t="shared" si="0"/>
-        <v>-2.2038866572576254</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C8" s="7">
+        <f>(B8/B12-1)*100</f>
+        <v/>
+      </c>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>45016</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="5" t="n">
         <v>180.22</v>
       </c>
-      <c r="C8" s="7">
-        <f t="shared" si="0"/>
-        <v>-0.46393460731249947</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="C9" s="7">
+        <f>(B9/B13-1)*100</f>
+        <v/>
+      </c>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>44926</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5" t="n">
         <v>181.88</v>
       </c>
-      <c r="C9" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2131329994435225</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C10" s="7">
+        <f>(B10/B14-1)*100</f>
+        <v/>
+      </c>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>44834</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5" t="n">
         <v>184.52</v>
       </c>
-      <c r="C10" s="7">
-        <f t="shared" si="0"/>
-        <v>3.6687454351367998</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="C11" s="7">
+        <f>(B11/B15-1)*100</f>
+        <v/>
+      </c>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="4" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>44742</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5" t="n">
         <v>184.22</v>
       </c>
-      <c r="C11" s="7">
-        <f t="shared" si="0"/>
-        <v>4.9088838268792845</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="C12" s="7">
+        <f>(B12/B16-1)*100</f>
+        <v/>
+      </c>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>44651</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5" t="n">
         <v>181.06</v>
       </c>
-      <c r="C12" s="7">
-        <f t="shared" si="0"/>
-        <v>6.3369941857050582</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="C13" s="7">
+        <f>(B13/B17-1)*100</f>
+        <v/>
+      </c>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>44561</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="5" t="n">
         <v>179.7</v>
       </c>
-      <c r="C13" s="7">
-        <f t="shared" si="0"/>
-        <v>3.8068280284212275</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="C14" s="7">
+        <f>(B14/B18-1)*100</f>
+        <v/>
+      </c>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>44469</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B15" s="5" t="n">
         <v>177.99</v>
       </c>
-      <c r="C14" s="7">
-        <f t="shared" si="0"/>
-        <v>2.896288588276108</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="C15" s="7">
+        <f>(B15/B19-1)*100</f>
+        <v/>
+      </c>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="4" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>44377</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5" t="n">
         <v>175.6</v>
       </c>
-      <c r="C15" s="7">
-        <f t="shared" si="0"/>
-        <v>1.280424501095867</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="C16" s="7">
+        <f>(B16/B20-1)*100</f>
+        <v/>
+      </c>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>44286</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5" t="n">
         <v>170.27</v>
       </c>
-      <c r="C16" s="7">
-        <f t="shared" si="0"/>
-        <v>-3.9379407616361051</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="C17" s="7">
+        <f>(B17/B21-1)*100</f>
+        <v/>
+      </c>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>44196</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B18" s="7" t="n">
         <v>173.11</v>
       </c>
-      <c r="C17" s="7">
-        <f t="shared" si="0"/>
-        <v>-3.1660793197963888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="C18" s="7">
+        <f>(B18/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>44104</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B19" s="7" t="n">
         <v>172.98</v>
       </c>
-      <c r="C18" s="7">
-        <f t="shared" si="0"/>
-        <v>-3.6859688195991169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="C19" s="7">
+        <f>(B19/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>44012</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B20" s="7" t="n">
         <v>173.38</v>
       </c>
-      <c r="C19" s="7">
-        <f t="shared" si="0"/>
-        <v>-3.2963355457638399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="C20" s="7">
+        <f>(B20/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>43921</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B21" s="7" t="n">
         <v>177.25</v>
       </c>
-      <c r="C20" s="7">
-        <f t="shared" si="0"/>
-        <v>-0.9333780460541008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="C21" s="7">
+        <f>(B21/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>43830</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B22" s="7" t="n">
         <v>178.77</v>
       </c>
-      <c r="C21" s="7">
-        <f t="shared" si="0"/>
-        <v>-0.70539880026659896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="C22" s="7">
+        <f>(B22/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>43738</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B23" s="7" t="n">
         <v>179.6</v>
       </c>
-      <c r="C22" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1137097672331286E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="C23" s="7">
+        <f>(B23/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>43646</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B24" s="7" t="n">
         <v>179.29</v>
       </c>
-      <c r="C23" s="7">
-        <f t="shared" si="0"/>
-        <v>0.60602659783399737</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="C24" s="7">
+        <f>(B24/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>43555</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B25" s="7" t="n">
         <v>178.92</v>
       </c>
-      <c r="C24" s="7">
-        <f t="shared" si="0"/>
-        <v>0.87956698240865272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="C25" s="7">
+        <f>(B25/B29-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>43465</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B26" s="7" t="n">
         <v>180.04</v>
       </c>
-      <c r="C25" s="7">
-        <f t="shared" si="0"/>
-        <v>0.92493973877458835</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="C26" s="7">
+        <f>(B26/B30-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>43373</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B27" s="7" t="n">
         <v>179.58</v>
       </c>
-      <c r="C26" s="7">
-        <f t="shared" si="0"/>
-        <v>0.26800670016751127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="C27" s="7">
+        <f>(B27/B31-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>43281</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B28" s="7" t="n">
         <v>178.21</v>
       </c>
-      <c r="C27" s="7">
-        <f t="shared" si="0"/>
-        <v>-0.45246341190928741</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="C28" s="7">
+        <f>(B28/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>43190</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B29" s="7" t="n">
         <v>177.36</v>
       </c>
-      <c r="C28" s="7">
-        <f t="shared" si="0"/>
-        <v>-0.24746906636670118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="C29" s="7">
+        <f>(B29/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>43100</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B30" s="7" t="n">
         <v>178.39</v>
       </c>
-      <c r="C29" s="7">
-        <f t="shared" si="0"/>
-        <v>0.19658503707031816</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="C30" s="7">
+        <f>(B30/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>43008</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B31" s="7" t="n">
         <v>179.1</v>
       </c>
-      <c r="C30" s="7">
-        <f t="shared" si="0"/>
-        <v>1.209312839059673</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="C31" s="7">
+        <f>(B31/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>42916</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B32" s="7" t="n">
         <v>179.02</v>
       </c>
-      <c r="C31" s="7">
-        <f t="shared" si="0"/>
-        <v>2.4259068543311724</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="C32" s="7">
+        <f>(B32/B36-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>42825</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B33" s="7" t="n">
         <v>177.8</v>
-      </c>
-      <c r="C32" s="7">
-        <f t="shared" si="0"/>
-        <v>3.8308806353655633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>42735</v>
-      </c>
-      <c r="B33" s="7">
-        <v>178.04</v>
       </c>
       <c r="C33" s="7">
         <f>(B33/B37-1)*100</f>
-        <v>5.0507434505546289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>42735</v>
+      </c>
+      <c r="B34" s="7" t="n">
+        <v>178.04</v>
+      </c>
+      <c r="C34" s="7">
+        <f>(B34/B38-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>42643</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B35" s="7" t="n">
         <v>176.96</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="C35">
+        <f>(B35/B39-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>42551</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B36" s="7" t="n">
         <v>174.78</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="C36">
+        <f>(B36/B40-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>42460</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B37" s="7" t="n">
         <v>171.24</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="C37">
+        <f>(B37/B41-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>42369</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B38" s="7" t="n">
         <v>169.48</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
+      <c r="C38">
+        <f>(B38/B42-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/finance.xlsx
+++ b/data/finance.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,49 +481,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>173.07</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B6-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2024-09-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>174.4</v>
       </c>
-      <c r="C2">
-        <f>(B2/B6-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>174.4</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <f>(B3/B7-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45473</v>
+        <v>45565</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>175.4</v>
+        <v>174.4</v>
       </c>
       <c r="C4" s="7">
         <f>(B4/B8-1)*100</f>
         <v/>
       </c>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45382</v>
+        <v>45473</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>175.1</v>
+        <v>175.4</v>
       </c>
       <c r="C5" s="7">
         <f>(B5/B9-1)*100</f>
@@ -534,10 +534,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45291</v>
+        <v>45382</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>178.22</v>
+        <v>175.1</v>
       </c>
       <c r="C6" s="7">
         <f>(B6/B10-1)*100</f>
@@ -548,10 +548,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>179.3</v>
+        <v>178.22</v>
       </c>
       <c r="C7" s="7">
         <f>(B7/B11-1)*100</f>
@@ -562,10 +562,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45107</v>
+        <v>45199</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>180.16</v>
+        <v>179.3</v>
       </c>
       <c r="C8" s="7">
         <f>(B8/B12-1)*100</f>
@@ -576,10 +576,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>180.22</v>
+        <v>180.16</v>
       </c>
       <c r="C9" s="7">
         <f>(B9/B13-1)*100</f>
@@ -590,10 +590,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>181.88</v>
+        <v>180.22</v>
       </c>
       <c r="C10" s="7">
         <f>(B10/B14-1)*100</f>
@@ -604,10 +604,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>184.52</v>
+        <v>181.88</v>
       </c>
       <c r="C11" s="7">
         <f>(B11/B15-1)*100</f>
@@ -618,10 +618,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>184.22</v>
+        <v>184.52</v>
       </c>
       <c r="C12" s="7">
         <f>(B12/B16-1)*100</f>
@@ -632,10 +632,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>181.06</v>
+        <v>184.22</v>
       </c>
       <c r="C13" s="7">
         <f>(B13/B17-1)*100</f>
@@ -646,10 +646,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>179.7</v>
+        <v>181.06</v>
       </c>
       <c r="C14" s="7">
         <f>(B14/B18-1)*100</f>
@@ -660,10 +660,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>177.99</v>
+        <v>179.7</v>
       </c>
       <c r="C15" s="7">
         <f>(B15/B19-1)*100</f>
@@ -674,10 +674,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>175.6</v>
+        <v>177.99</v>
       </c>
       <c r="C16" s="7">
         <f>(B16/B20-1)*100</f>
@@ -688,10 +688,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>170.27</v>
+        <v>175.6</v>
       </c>
       <c r="C17" s="7">
         <f>(B17/B21-1)*100</f>
@@ -702,22 +702,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B18" s="7" t="n">
-        <v>173.11</v>
+        <v>44286</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>170.27</v>
       </c>
       <c r="C18" s="7">
         <f>(B18/B22-1)*100</f>
         <v/>
       </c>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="B19" s="7" t="n">
-        <v>172.98</v>
+        <v>173.11</v>
       </c>
       <c r="C19" s="7">
         <f>(B19/B23-1)*100</f>
@@ -726,10 +728,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="B20" s="7" t="n">
-        <v>173.38</v>
+        <v>172.98</v>
       </c>
       <c r="C20" s="7">
         <f>(B20/B24-1)*100</f>
@@ -738,10 +740,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>43921</v>
+        <v>44012</v>
       </c>
       <c r="B21" s="7" t="n">
-        <v>177.25</v>
+        <v>173.38</v>
       </c>
       <c r="C21" s="7">
         <f>(B21/B25-1)*100</f>
@@ -750,10 +752,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="B22" s="7" t="n">
-        <v>178.77</v>
+        <v>177.25</v>
       </c>
       <c r="C22" s="7">
         <f>(B22/B26-1)*100</f>
@@ -762,10 +764,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43738</v>
+        <v>43830</v>
       </c>
       <c r="B23" s="7" t="n">
-        <v>179.6</v>
+        <v>178.77</v>
       </c>
       <c r="C23" s="7">
         <f>(B23/B27-1)*100</f>
@@ -774,10 +776,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43646</v>
+        <v>43738</v>
       </c>
       <c r="B24" s="7" t="n">
-        <v>179.29</v>
+        <v>179.6</v>
       </c>
       <c r="C24" s="7">
         <f>(B24/B28-1)*100</f>
@@ -786,10 +788,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43555</v>
+        <v>43646</v>
       </c>
       <c r="B25" s="7" t="n">
-        <v>178.92</v>
+        <v>179.29</v>
       </c>
       <c r="C25" s="7">
         <f>(B25/B29-1)*100</f>
@@ -798,10 +800,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="B26" s="7" t="n">
-        <v>180.04</v>
+        <v>178.92</v>
       </c>
       <c r="C26" s="7">
         <f>(B26/B30-1)*100</f>
@@ -810,10 +812,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43373</v>
+        <v>43465</v>
       </c>
       <c r="B27" s="7" t="n">
-        <v>179.58</v>
+        <v>180.04</v>
       </c>
       <c r="C27" s="7">
         <f>(B27/B31-1)*100</f>
@@ -822,10 +824,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>43281</v>
+        <v>43373</v>
       </c>
       <c r="B28" s="7" t="n">
-        <v>178.21</v>
+        <v>179.58</v>
       </c>
       <c r="C28" s="7">
         <f>(B28/B32-1)*100</f>
@@ -834,10 +836,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43190</v>
+        <v>43281</v>
       </c>
       <c r="B29" s="7" t="n">
-        <v>177.36</v>
+        <v>178.21</v>
       </c>
       <c r="C29" s="7">
         <f>(B29/B33-1)*100</f>
@@ -846,10 +848,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="B30" s="7" t="n">
-        <v>178.39</v>
+        <v>177.36</v>
       </c>
       <c r="C30" s="7">
         <f>(B30/B34-1)*100</f>
@@ -858,10 +860,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>43008</v>
+        <v>43100</v>
       </c>
       <c r="B31" s="7" t="n">
-        <v>179.1</v>
+        <v>178.39</v>
       </c>
       <c r="C31" s="7">
         <f>(B31/B35-1)*100</f>
@@ -870,10 +872,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>42916</v>
+        <v>43008</v>
       </c>
       <c r="B32" s="7" t="n">
-        <v>179.02</v>
+        <v>179.1</v>
       </c>
       <c r="C32" s="7">
         <f>(B32/B36-1)*100</f>
@@ -882,10 +884,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>42825</v>
+        <v>42916</v>
       </c>
       <c r="B33" s="7" t="n">
-        <v>177.8</v>
+        <v>179.02</v>
       </c>
       <c r="C33" s="7">
         <f>(B33/B37-1)*100</f>
@@ -894,10 +896,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="B34" s="7" t="n">
-        <v>178.04</v>
+        <v>177.8</v>
       </c>
       <c r="C34" s="7">
         <f>(B34/B38-1)*100</f>
@@ -906,22 +908,22 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>42643</v>
+        <v>42735</v>
       </c>
       <c r="B35" s="7" t="n">
-        <v>176.96</v>
-      </c>
-      <c r="C35">
+        <v>178.04</v>
+      </c>
+      <c r="C35" s="7">
         <f>(B35/B39-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>42551</v>
+        <v>42643</v>
       </c>
       <c r="B36" s="7" t="n">
-        <v>174.78</v>
+        <v>176.96</v>
       </c>
       <c r="C36">
         <f>(B36/B40-1)*100</f>
@@ -930,10 +932,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>42460</v>
+        <v>42551</v>
       </c>
       <c r="B37" s="7" t="n">
-        <v>171.24</v>
+        <v>174.78</v>
       </c>
       <c r="C37">
         <f>(B37/B41-1)*100</f>
@@ -942,10 +944,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="B38" s="7" t="n">
-        <v>169.48</v>
+        <v>171.24</v>
       </c>
       <c r="C38">
         <f>(B38/B42-1)*100</f>
@@ -953,7 +955,19 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="7" t="n"/>
+      <c r="A39" s="1" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B39" s="7" t="n">
+        <v>169.48</v>
+      </c>
+      <c r="C39">
+        <f>(B39/B43-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/finance.xlsx
+++ b/data/finance.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.07</v>
+        <v>171.9</v>
       </c>
       <c r="C2">
         <f>(B2/B6-1)*100</f>
@@ -495,49 +495,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>173.07</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B7-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024-09-01</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>174.4</v>
       </c>
-      <c r="C3">
-        <f>(B3/B7-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>174.4</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <f>(B4/B8-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45473</v>
+        <v>45565</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>175.4</v>
+        <v>174.4</v>
       </c>
       <c r="C5" s="7">
         <f>(B5/B9-1)*100</f>
         <v/>
       </c>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45382</v>
+        <v>45473</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>175.1</v>
+        <v>175.4</v>
       </c>
       <c r="C6" s="7">
         <f>(B6/B10-1)*100</f>
@@ -548,10 +548,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45291</v>
+        <v>45382</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>178.22</v>
+        <v>175.1</v>
       </c>
       <c r="C7" s="7">
         <f>(B7/B11-1)*100</f>
@@ -562,10 +562,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>179.3</v>
+        <v>178.22</v>
       </c>
       <c r="C8" s="7">
         <f>(B8/B12-1)*100</f>
@@ -576,10 +576,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45107</v>
+        <v>45199</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>180.16</v>
+        <v>179.3</v>
       </c>
       <c r="C9" s="7">
         <f>(B9/B13-1)*100</f>
@@ -590,10 +590,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>180.22</v>
+        <v>180.16</v>
       </c>
       <c r="C10" s="7">
         <f>(B10/B14-1)*100</f>
@@ -604,10 +604,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>181.88</v>
+        <v>180.22</v>
       </c>
       <c r="C11" s="7">
         <f>(B11/B15-1)*100</f>
@@ -618,10 +618,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>184.52</v>
+        <v>181.88</v>
       </c>
       <c r="C12" s="7">
         <f>(B12/B16-1)*100</f>
@@ -632,10 +632,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>184.22</v>
+        <v>184.52</v>
       </c>
       <c r="C13" s="7">
         <f>(B13/B17-1)*100</f>
@@ -646,10 +646,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>181.06</v>
+        <v>184.22</v>
       </c>
       <c r="C14" s="7">
         <f>(B14/B18-1)*100</f>
@@ -660,10 +660,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>179.7</v>
+        <v>181.06</v>
       </c>
       <c r="C15" s="7">
         <f>(B15/B19-1)*100</f>
@@ -674,10 +674,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>177.99</v>
+        <v>179.7</v>
       </c>
       <c r="C16" s="7">
         <f>(B16/B20-1)*100</f>
@@ -688,10 +688,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>175.6</v>
+        <v>177.99</v>
       </c>
       <c r="C17" s="7">
         <f>(B17/B21-1)*100</f>
@@ -702,10 +702,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>170.27</v>
+        <v>175.6</v>
       </c>
       <c r="C18" s="7">
         <f>(B18/B22-1)*100</f>
@@ -716,22 +716,24 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B19" s="7" t="n">
-        <v>173.11</v>
+        <v>44286</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>170.27</v>
       </c>
       <c r="C19" s="7">
         <f>(B19/B23-1)*100</f>
         <v/>
       </c>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="B20" s="7" t="n">
-        <v>172.98</v>
+        <v>173.11</v>
       </c>
       <c r="C20" s="7">
         <f>(B20/B24-1)*100</f>
@@ -740,10 +742,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="B21" s="7" t="n">
-        <v>173.38</v>
+        <v>172.98</v>
       </c>
       <c r="C21" s="7">
         <f>(B21/B25-1)*100</f>
@@ -752,10 +754,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>43921</v>
+        <v>44012</v>
       </c>
       <c r="B22" s="7" t="n">
-        <v>177.25</v>
+        <v>173.38</v>
       </c>
       <c r="C22" s="7">
         <f>(B22/B26-1)*100</f>
@@ -764,10 +766,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="B23" s="7" t="n">
-        <v>178.77</v>
+        <v>177.25</v>
       </c>
       <c r="C23" s="7">
         <f>(B23/B27-1)*100</f>
@@ -776,10 +778,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43738</v>
+        <v>43830</v>
       </c>
       <c r="B24" s="7" t="n">
-        <v>179.6</v>
+        <v>178.77</v>
       </c>
       <c r="C24" s="7">
         <f>(B24/B28-1)*100</f>
@@ -788,10 +790,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43646</v>
+        <v>43738</v>
       </c>
       <c r="B25" s="7" t="n">
-        <v>179.29</v>
+        <v>179.6</v>
       </c>
       <c r="C25" s="7">
         <f>(B25/B29-1)*100</f>
@@ -800,10 +802,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43555</v>
+        <v>43646</v>
       </c>
       <c r="B26" s="7" t="n">
-        <v>178.92</v>
+        <v>179.29</v>
       </c>
       <c r="C26" s="7">
         <f>(B26/B30-1)*100</f>
@@ -812,10 +814,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="B27" s="7" t="n">
-        <v>180.04</v>
+        <v>178.92</v>
       </c>
       <c r="C27" s="7">
         <f>(B27/B31-1)*100</f>
@@ -824,10 +826,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>43373</v>
+        <v>43465</v>
       </c>
       <c r="B28" s="7" t="n">
-        <v>179.58</v>
+        <v>180.04</v>
       </c>
       <c r="C28" s="7">
         <f>(B28/B32-1)*100</f>
@@ -836,10 +838,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43281</v>
+        <v>43373</v>
       </c>
       <c r="B29" s="7" t="n">
-        <v>178.21</v>
+        <v>179.58</v>
       </c>
       <c r="C29" s="7">
         <f>(B29/B33-1)*100</f>
@@ -848,10 +850,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>43190</v>
+        <v>43281</v>
       </c>
       <c r="B30" s="7" t="n">
-        <v>177.36</v>
+        <v>178.21</v>
       </c>
       <c r="C30" s="7">
         <f>(B30/B34-1)*100</f>
@@ -860,10 +862,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="B31" s="7" t="n">
-        <v>178.39</v>
+        <v>177.36</v>
       </c>
       <c r="C31" s="7">
         <f>(B31/B35-1)*100</f>
@@ -872,10 +874,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>43008</v>
+        <v>43100</v>
       </c>
       <c r="B32" s="7" t="n">
-        <v>179.1</v>
+        <v>178.39</v>
       </c>
       <c r="C32" s="7">
         <f>(B32/B36-1)*100</f>
@@ -884,10 +886,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>42916</v>
+        <v>43008</v>
       </c>
       <c r="B33" s="7" t="n">
-        <v>179.02</v>
+        <v>179.1</v>
       </c>
       <c r="C33" s="7">
         <f>(B33/B37-1)*100</f>
@@ -896,10 +898,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>42825</v>
+        <v>42916</v>
       </c>
       <c r="B34" s="7" t="n">
-        <v>177.8</v>
+        <v>179.02</v>
       </c>
       <c r="C34" s="7">
         <f>(B34/B38-1)*100</f>
@@ -908,10 +910,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="B35" s="7" t="n">
-        <v>178.04</v>
+        <v>177.8</v>
       </c>
       <c r="C35" s="7">
         <f>(B35/B39-1)*100</f>
@@ -920,22 +922,22 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>42643</v>
+        <v>42735</v>
       </c>
       <c r="B36" s="7" t="n">
-        <v>176.96</v>
-      </c>
-      <c r="C36">
+        <v>178.04</v>
+      </c>
+      <c r="C36" s="7">
         <f>(B36/B40-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>42551</v>
+        <v>42643</v>
       </c>
       <c r="B37" s="7" t="n">
-        <v>174.78</v>
+        <v>176.96</v>
       </c>
       <c r="C37">
         <f>(B37/B41-1)*100</f>
@@ -944,10 +946,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42460</v>
+        <v>42551</v>
       </c>
       <c r="B38" s="7" t="n">
-        <v>171.24</v>
+        <v>174.78</v>
       </c>
       <c r="C38">
         <f>(B38/B42-1)*100</f>
@@ -956,10 +958,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="B39" s="7" t="n">
-        <v>169.48</v>
+        <v>171.24</v>
       </c>
       <c r="C39">
         <f>(B39/B43-1)*100</f>
@@ -967,7 +969,19 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="7" t="n"/>
+      <c r="A40" s="1" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B40" s="7" t="n">
+        <v>169.48</v>
+      </c>
+      <c r="C40">
+        <f>(B40/B44-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/finance.xlsx
+++ b/data/finance.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171.9</v>
+        <v>174.78</v>
       </c>
       <c r="C2">
         <f>(B2/B6-1)*100</f>
@@ -495,11 +495,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173.07</v>
+        <v>171.9</v>
       </c>
       <c r="C3">
         <f>(B3/B7-1)*100</f>
@@ -509,49 +509,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>173.07</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B8-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024-09-01</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>174.4</v>
       </c>
-      <c r="C4">
-        <f>(B4/B8-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>174.4</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <f>(B5/B9-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45473</v>
+        <v>45565</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>175.4</v>
+        <v>174.4</v>
       </c>
       <c r="C6" s="7">
         <f>(B6/B10-1)*100</f>
         <v/>
       </c>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45382</v>
+        <v>45473</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>175.1</v>
+        <v>175.4</v>
       </c>
       <c r="C7" s="7">
         <f>(B7/B11-1)*100</f>
@@ -562,10 +562,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45291</v>
+        <v>45382</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>178.22</v>
+        <v>175.1</v>
       </c>
       <c r="C8" s="7">
         <f>(B8/B12-1)*100</f>
@@ -576,10 +576,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45199</v>
+        <v>45291</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>179.3</v>
+        <v>178.22</v>
       </c>
       <c r="C9" s="7">
         <f>(B9/B13-1)*100</f>
@@ -590,10 +590,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45107</v>
+        <v>45199</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>180.16</v>
+        <v>179.3</v>
       </c>
       <c r="C10" s="7">
         <f>(B10/B14-1)*100</f>
@@ -604,10 +604,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>180.22</v>
+        <v>180.16</v>
       </c>
       <c r="C11" s="7">
         <f>(B11/B15-1)*100</f>
@@ -618,10 +618,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>181.88</v>
+        <v>180.22</v>
       </c>
       <c r="C12" s="7">
         <f>(B12/B16-1)*100</f>
@@ -632,10 +632,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>184.52</v>
+        <v>181.88</v>
       </c>
       <c r="C13" s="7">
         <f>(B13/B17-1)*100</f>
@@ -646,10 +646,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>184.22</v>
+        <v>184.52</v>
       </c>
       <c r="C14" s="7">
         <f>(B14/B18-1)*100</f>
@@ -660,10 +660,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>181.06</v>
+        <v>184.22</v>
       </c>
       <c r="C15" s="7">
         <f>(B15/B19-1)*100</f>
@@ -674,10 +674,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>179.7</v>
+        <v>181.06</v>
       </c>
       <c r="C16" s="7">
         <f>(B16/B20-1)*100</f>
@@ -688,10 +688,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44469</v>
+        <v>44561</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>177.99</v>
+        <v>179.7</v>
       </c>
       <c r="C17" s="7">
         <f>(B17/B21-1)*100</f>
@@ -702,10 +702,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>175.6</v>
+        <v>177.99</v>
       </c>
       <c r="C18" s="7">
         <f>(B18/B22-1)*100</f>
@@ -716,10 +716,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>170.27</v>
+        <v>175.6</v>
       </c>
       <c r="C19" s="7">
         <f>(B19/B23-1)*100</f>
@@ -730,22 +730,24 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B20" s="7" t="n">
-        <v>173.11</v>
+        <v>44286</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>170.27</v>
       </c>
       <c r="C20" s="7">
         <f>(B20/B24-1)*100</f>
         <v/>
       </c>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="B21" s="7" t="n">
-        <v>172.98</v>
+        <v>173.11</v>
       </c>
       <c r="C21" s="7">
         <f>(B21/B25-1)*100</f>
@@ -754,10 +756,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="B22" s="7" t="n">
-        <v>173.38</v>
+        <v>172.98</v>
       </c>
       <c r="C22" s="7">
         <f>(B22/B26-1)*100</f>
@@ -766,10 +768,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>43921</v>
+        <v>44012</v>
       </c>
       <c r="B23" s="7" t="n">
-        <v>177.25</v>
+        <v>173.38</v>
       </c>
       <c r="C23" s="7">
         <f>(B23/B27-1)*100</f>
@@ -778,10 +780,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="B24" s="7" t="n">
-        <v>178.77</v>
+        <v>177.25</v>
       </c>
       <c r="C24" s="7">
         <f>(B24/B28-1)*100</f>
@@ -790,10 +792,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>43738</v>
+        <v>43830</v>
       </c>
       <c r="B25" s="7" t="n">
-        <v>179.6</v>
+        <v>178.77</v>
       </c>
       <c r="C25" s="7">
         <f>(B25/B29-1)*100</f>
@@ -802,10 +804,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>43646</v>
+        <v>43738</v>
       </c>
       <c r="B26" s="7" t="n">
-        <v>179.29</v>
+        <v>179.6</v>
       </c>
       <c r="C26" s="7">
         <f>(B26/B30-1)*100</f>
@@ -814,10 +816,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43555</v>
+        <v>43646</v>
       </c>
       <c r="B27" s="7" t="n">
-        <v>178.92</v>
+        <v>179.29</v>
       </c>
       <c r="C27" s="7">
         <f>(B27/B31-1)*100</f>
@@ -826,10 +828,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="B28" s="7" t="n">
-        <v>180.04</v>
+        <v>178.92</v>
       </c>
       <c r="C28" s="7">
         <f>(B28/B32-1)*100</f>
@@ -838,10 +840,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>43373</v>
+        <v>43465</v>
       </c>
       <c r="B29" s="7" t="n">
-        <v>179.58</v>
+        <v>180.04</v>
       </c>
       <c r="C29" s="7">
         <f>(B29/B33-1)*100</f>
@@ -850,10 +852,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>43281</v>
+        <v>43373</v>
       </c>
       <c r="B30" s="7" t="n">
-        <v>178.21</v>
+        <v>179.58</v>
       </c>
       <c r="C30" s="7">
         <f>(B30/B34-1)*100</f>
@@ -862,10 +864,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>43190</v>
+        <v>43281</v>
       </c>
       <c r="B31" s="7" t="n">
-        <v>177.36</v>
+        <v>178.21</v>
       </c>
       <c r="C31" s="7">
         <f>(B31/B35-1)*100</f>
@@ -874,10 +876,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="B32" s="7" t="n">
-        <v>178.39</v>
+        <v>177.36</v>
       </c>
       <c r="C32" s="7">
         <f>(B32/B36-1)*100</f>
@@ -886,10 +888,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>43008</v>
+        <v>43100</v>
       </c>
       <c r="B33" s="7" t="n">
-        <v>179.1</v>
+        <v>178.39</v>
       </c>
       <c r="C33" s="7">
         <f>(B33/B37-1)*100</f>
@@ -898,10 +900,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>42916</v>
+        <v>43008</v>
       </c>
       <c r="B34" s="7" t="n">
-        <v>179.02</v>
+        <v>179.1</v>
       </c>
       <c r="C34" s="7">
         <f>(B34/B38-1)*100</f>
@@ -910,10 +912,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>42825</v>
+        <v>42916</v>
       </c>
       <c r="B35" s="7" t="n">
-        <v>177.8</v>
+        <v>179.02</v>
       </c>
       <c r="C35" s="7">
         <f>(B35/B39-1)*100</f>
@@ -922,10 +924,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>42735</v>
+        <v>42825</v>
       </c>
       <c r="B36" s="7" t="n">
-        <v>178.04</v>
+        <v>177.8</v>
       </c>
       <c r="C36" s="7">
         <f>(B36/B40-1)*100</f>
@@ -934,22 +936,22 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>42643</v>
+        <v>42735</v>
       </c>
       <c r="B37" s="7" t="n">
-        <v>176.96</v>
-      </c>
-      <c r="C37">
+        <v>178.04</v>
+      </c>
+      <c r="C37" s="7">
         <f>(B37/B41-1)*100</f>
         <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42551</v>
+        <v>42643</v>
       </c>
       <c r="B38" s="7" t="n">
-        <v>174.78</v>
+        <v>176.96</v>
       </c>
       <c r="C38">
         <f>(B38/B42-1)*100</f>
@@ -958,10 +960,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42460</v>
+        <v>42551</v>
       </c>
       <c r="B39" s="7" t="n">
-        <v>171.24</v>
+        <v>174.78</v>
       </c>
       <c r="C39">
         <f>(B39/B43-1)*100</f>
@@ -970,10 +972,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="B40" s="7" t="n">
-        <v>169.48</v>
+        <v>171.24</v>
       </c>
       <c r="C40">
         <f>(B40/B44-1)*100</f>
@@ -981,7 +983,19 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="7" t="n"/>
+      <c r="A41" s="1" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B41" s="7" t="n">
+        <v>169.48</v>
+      </c>
+      <c r="C41">
+        <f>(B41/B45-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
